--- a/output/SCENARIO 5/sch5-arr10-mm1-res.xlsx
+++ b/output/SCENARIO 5/sch5-arr10-mm1-res.xlsx
@@ -15,18 +15,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="30">
   <si>
     <t>stat</t>
   </si>
   <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>Stage_1/2</t>
-  </si>
-  <si>
-    <t>Stage_3/4</t>
+    <t>no_cancer</t>
+  </si>
+  <si>
+    <t>cancer</t>
+  </si>
+  <si>
+    <t>stage_1_2</t>
+  </si>
+  <si>
+    <t>stage_3_4</t>
   </si>
   <si>
     <t>1</t>
@@ -44,82 +47,49 @@
     <t>5</t>
   </si>
   <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>sd</t>
+  </si>
+  <si>
+    <t>median</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>unique_arrivals</t>
+  </si>
+  <si>
+    <t>total_scanned</t>
+  </si>
+  <si>
+    <t>total_returns</t>
+  </si>
+  <si>
+    <t>effective_arr_rate</t>
+  </si>
+  <si>
+    <t>Wait Time</t>
+  </si>
+  <si>
+    <t>Time in System</t>
+  </si>
+  <si>
+    <t>Service Time</t>
+  </si>
+  <si>
+    <t>Queue Size</t>
+  </si>
+  <si>
     <t>6</t>
   </si>
   <si>
     <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>mean</t>
-  </si>
-  <si>
-    <t>sd</t>
-  </si>
-  <si>
-    <t>median</t>
-  </si>
-  <si>
-    <t>max</t>
-  </si>
-  <si>
-    <t>min</t>
-  </si>
-  <si>
-    <t>count</t>
-  </si>
-  <si>
-    <t>Percentage of Total Scans</t>
-  </si>
-  <si>
-    <t>Pecentage of all Cancer Results</t>
-  </si>
-  <si>
-    <t>desc</t>
-  </si>
-  <si>
-    <t>unique_arrivals</t>
-  </si>
-  <si>
-    <t>total_scanned</t>
-  </si>
-  <si>
-    <t>total_returns</t>
-  </si>
-  <si>
-    <t>Wait Time</t>
-  </si>
-  <si>
-    <t>Time in System</t>
-  </si>
-  <si>
-    <t>Service Time</t>
-  </si>
-  <si>
-    <t>Queue Size</t>
   </si>
   <si>
     <t>avg_max</t>
@@ -199,260 +169,108 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
+        <v>10</v>
+      </c>
+      <c r="C2" t="n">
+        <v>22165.833333333332</v>
       </c>
       <c r="D2" t="n">
+        <v>1847.2</v>
+      </c>
+      <c r="E2" t="n">
         <v>1290.7666666666667</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>556.4333333333333</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
+        <v>11</v>
+      </c>
+      <c r="C3" t="n">
+        <v>165.87533402161276</v>
       </c>
       <c r="D3" t="n">
+        <v>43.987772595700214</v>
+      </c>
+      <c r="E3" t="n">
         <v>35.45631924936151</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>26.941422194922403</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="C4" t="n">
+        <v>22175.0</v>
       </c>
       <c r="D4" t="n">
+        <v>1855.5</v>
+      </c>
+      <c r="E4" t="n">
         <v>1299.0</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>553.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
+        <v>13</v>
+      </c>
+      <c r="C5" t="n">
+        <v>22492.0</v>
       </c>
       <c r="D5" t="n">
+        <v>1923.0</v>
+      </c>
+      <c r="E5" t="n">
         <v>1380.0</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>617.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
+        <v>14</v>
+      </c>
+      <c r="C6" t="n">
+        <v>21855.0</v>
       </c>
       <c r="D6" t="n">
+        <v>1743.0</v>
+      </c>
+      <c r="E6" t="n">
         <v>1213.0</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>517.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="n">
-        <v>5.375470197822243</v>
-      </c>
-      <c r="E7" t="n">
-        <v>2.3172325682775137</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.15065342608556861</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.11153586127928182</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="n">
-        <v>5.38941166243789</v>
-      </c>
-      <c r="E9" t="n">
-        <v>2.2925591233552387</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="n">
-        <v>5.796127514805326</v>
-      </c>
-      <c r="E10" t="n">
-        <v>2.5720121722456124</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="n">
-        <v>5.085101031273581</v>
-      </c>
-      <c r="E11" t="n">
-        <v>2.1382191157616113</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="n">
-        <v>69.88036481633146</v>
-      </c>
-      <c r="E12" t="n">
-        <v>30.119635183668535</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1.177497142667421</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1.17749714266742</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="n">
-        <v>69.99472573839662</v>
-      </c>
-      <c r="E14" t="n">
-        <v>30.005274261603375</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="n">
-        <v>72.63157894736842</v>
-      </c>
-      <c r="E15" t="n">
-        <v>33.04767005891805</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="n">
-        <v>66.95232994108194</v>
-      </c>
-      <c r="E16" t="n">
-        <v>27.368421052631582</v>
       </c>
     </row>
   </sheetData>
@@ -471,24 +289,27 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>30</v>
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C2" t="n">
         <v>19315.133333333335</v>
@@ -499,13 +320,16 @@
       <c r="E2" t="n">
         <v>7086.9</v>
       </c>
+      <c r="F2" t="n">
+        <v>24.447087838533623</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C3" t="n">
         <v>138.22638436034322</v>
@@ -516,13 +340,16 @@
       <c r="E3" t="n">
         <v>79.97687165674837</v>
       </c>
+      <c r="F3" t="n">
+        <v>0.17428430654530425</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C4" t="n">
         <v>19304.0</v>
@@ -533,13 +360,16 @@
       <c r="E4" t="n">
         <v>7080.5</v>
       </c>
+      <c r="F4" t="n">
+        <v>24.438425925925927</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C5" t="n">
         <v>19668.0</v>
@@ -550,13 +380,16 @@
       <c r="E5" t="n">
         <v>7225.0</v>
       </c>
+      <c r="F5" t="n">
+        <v>24.85185185185185</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C6" t="n">
         <v>18972.0</v>
@@ -566,6 +399,9 @@
       </c>
       <c r="E6" t="n">
         <v>6928.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>24.016666666666666</v>
       </c>
     </row>
   </sheetData>
@@ -587,24 +423,24 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C2" t="n">
         <v>31.11815986999418</v>
@@ -621,10 +457,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C3" t="n">
         <v>2.7882604098856683</v>
@@ -641,10 +477,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C4" t="n">
         <v>25.048275000000103</v>
@@ -661,10 +497,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C5" t="n">
         <v>89.66235666666655</v>
@@ -681,10 +517,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C6" t="n">
         <v>0.0</v>
@@ -701,10 +537,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C7" t="n">
         <v>103.39939999999979</v>
@@ -721,10 +557,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C8" t="n">
         <v>0.0</v>
@@ -758,84 +594,84 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>97.41176102800773</v>
+        <v>32.47058700933591</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4704804409667128</v>
+        <v>0.1568268136555711</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C4" t="n">
-        <v>101.78250000001299</v>
+        <v>33.92750000000433</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>122.54499999999553</v>
+        <v>40.848333333331844</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C6" t="n">
-        <v>8.485999999998057</v>
+        <v>2.828666666666019</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C7" t="n">
-        <v>134.27999999998974</v>
+        <v>44.75999999999658</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C8" t="n">
-        <v>2.670000000011896</v>
+        <v>0.8900000000039654</v>
       </c>
     </row>
   </sheetData>
